--- a/Dictionaries/CVDINFR4.xlsx
+++ b/Dictionaries/CVDINFR4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2523d341f1af05b7/Documents/SAN JOSE STATE/Master/CMPE 255/CMPE255 Group Project-20241025T055613Z-001/CMPE255 Group Project/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{EEB9788B-B205-43B7-A9F9-2347FE3D122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2DA361-B177-4FAE-9515-0BE03271602D}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{EEB9788B-B205-43B7-A9F9-2347FE3D122B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D508C35-5DE9-47D0-87A8-11C0832FB119}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{C0D64782-2A13-4693-B9A3-7030ABDFE210}"/>
+    <workbookView xWindow="7545" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{C0D64782-2A13-4693-B9A3-7030ABDFE210}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>CVDINFR4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Value</t>
   </si>
@@ -317,6 +314,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526A226E-6D9E-47BA-A8B1-3D951930A8C8}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,111 +651,106 @@
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>23451</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>23451</v>
+        <v>407304</v>
       </c>
       <c r="D3" s="1">
-        <v>5.41</v>
+        <v>94</v>
       </c>
       <c r="E3" s="8">
-        <v>4.16</v>
+        <v>95.17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>407304</v>
+        <v>2314</v>
       </c>
       <c r="D4" s="1">
-        <v>94</v>
+        <v>0.53</v>
       </c>
       <c r="E4" s="8">
-        <v>95.17</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
-        <v>2314</v>
+      <c r="C5" s="1">
+        <v>251</v>
       </c>
       <c r="D5" s="1">
-        <v>0.53</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="8">
-        <v>0.61</v>
+        <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>251</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>12</v>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
